--- a/100_ruts.xlsx
+++ b/100_ruts.xlsx
@@ -3168,7 +3168,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>duplicado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>duplicado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>duplicado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">

--- a/100_ruts.xlsx
+++ b/100_ruts.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>carterizado</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>asignar</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>asignar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>carterizado</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
